--- a/output/17stycznia/2022/sheets/year_2022.xlsx
+++ b/output/17stycznia/2022/sheets/year_2022.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>33.35161290322581</v>
+        <v>41.49875893448741</v>
       </c>
       <c r="C2" t="n">
-        <v>35.86451612903225</v>
+        <v>41.82221599329906</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>38.26785714285715</v>
+        <v>46.61329687371101</v>
       </c>
       <c r="C3" t="n">
-        <v>36.57142857142857</v>
+        <v>47.13513668057766</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>33.65161290322581</v>
+        <v>45.58381382051336</v>
       </c>
       <c r="C4" t="n">
-        <v>32.8225806451613</v>
+        <v>44.74112154761509</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.05666666666666</v>
+        <v>41.59833149818952</v>
       </c>
       <c r="C5" t="n">
-        <v>32.66666666666666</v>
+        <v>41.22852339607903</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.60645161290323</v>
+        <v>41.03486045486594</v>
       </c>
       <c r="C6" t="n">
-        <v>35.87741935483871</v>
+        <v>43.73693444147278</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.56</v>
+        <v>43.64058135626231</v>
       </c>
       <c r="C7" t="n">
-        <v>38.24999999999999</v>
+        <v>44.88332361242754</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.29677419354839</v>
+        <v>41.35431115799126</v>
       </c>
       <c r="C8" t="n">
-        <v>38.57096774193548</v>
+        <v>43.12287102266196</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.0741935483871</v>
+        <v>39.28183265753997</v>
       </c>
       <c r="C9" t="n">
-        <v>37.40322580645161</v>
+        <v>40.98522929072932</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>39.69333333333334</v>
+        <v>45.1929350131084</v>
       </c>
       <c r="C10" t="n">
-        <v>44.49333333333333</v>
+        <v>46.13174932734093</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>47.33548387096774</v>
+        <v>49.65555196704511</v>
       </c>
       <c r="C11" t="n">
-        <v>46.83548387096774</v>
+        <v>48.46042992658121</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>38.9</v>
+        <v>44.86305254894414</v>
       </c>
       <c r="C12" t="n">
-        <v>44.13333333333333</v>
+        <v>45.99402428545702</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>39.26774193548387</v>
+        <v>47.82468045654075</v>
       </c>
       <c r="C13" t="n">
-        <v>44.4967741935484</v>
+        <v>46.3443378208876</v>
       </c>
     </row>
   </sheetData>
